--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Itgav-Thy1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Itgav-Thy1.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="H2">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="I2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="J2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.114886</v>
+        <v>2.083188</v>
       </c>
       <c r="N2">
-        <v>3.344658</v>
+        <v>6.249564</v>
       </c>
       <c r="O2">
-        <v>0.01026455462504307</v>
+        <v>0.01853451022101116</v>
       </c>
       <c r="P2">
-        <v>0.01026455462504307</v>
+        <v>0.01853451022101116</v>
       </c>
       <c r="Q2">
-        <v>17.12335643549734</v>
+        <v>19.631656094572</v>
       </c>
       <c r="R2">
-        <v>154.110207919476</v>
+        <v>176.684904851148</v>
       </c>
       <c r="S2">
-        <v>0.001038816878068744</v>
+        <v>0.001233348639849955</v>
       </c>
       <c r="T2">
-        <v>0.001038816878068744</v>
+        <v>0.001233348639849955</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="H3">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="I3">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="J3">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>241.998978</v>
       </c>
       <c r="O3">
-        <v>0.7426803364904859</v>
+        <v>0.7177032719746937</v>
       </c>
       <c r="P3">
-        <v>0.7426803364904859</v>
+        <v>0.717703271974694</v>
       </c>
       <c r="Q3">
-        <v>1238.941248199391</v>
+        <v>760.1875444965274</v>
       </c>
       <c r="R3">
-        <v>11150.47123379452</v>
+        <v>6841.687900468746</v>
       </c>
       <c r="S3">
-        <v>0.07516243000683079</v>
+        <v>0.04775838928305704</v>
       </c>
       <c r="T3">
-        <v>0.0751624300068308</v>
+        <v>0.04775838928305706</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="H4">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="I4">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="J4">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.14389166666666</v>
+        <v>29.09185666666666</v>
       </c>
       <c r="N4">
-        <v>78.431675</v>
+        <v>87.27556999999999</v>
       </c>
       <c r="O4">
-        <v>0.2407021023886821</v>
+        <v>0.258835647448298</v>
       </c>
       <c r="P4">
-        <v>0.2407021023886821</v>
+        <v>0.258835647448298</v>
       </c>
       <c r="Q4">
-        <v>401.5398665149278</v>
+        <v>274.1573613291656</v>
       </c>
       <c r="R4">
-        <v>3613.85879863435</v>
+        <v>2467.41625196249</v>
       </c>
       <c r="S4">
-        <v>0.02436008338227775</v>
+        <v>0.01722379442015947</v>
       </c>
       <c r="T4">
-        <v>0.02436008338227776</v>
+        <v>0.01722379442015947</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="H5">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="I5">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="J5">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6900326666666666</v>
+        <v>0.5537223333333333</v>
       </c>
       <c r="N5">
-        <v>2.070098</v>
+        <v>1.661167</v>
       </c>
       <c r="O5">
-        <v>0.006353006495788928</v>
+        <v>0.004926570355997066</v>
       </c>
       <c r="P5">
-        <v>0.006353006495788928</v>
+        <v>0.004926570355997067</v>
       </c>
       <c r="Q5">
-        <v>10.59810178212844</v>
+        <v>5.218197503002112</v>
       </c>
       <c r="R5">
-        <v>95.382916039156</v>
+        <v>46.963777527019</v>
       </c>
       <c r="S5">
-        <v>0.0006429514592093872</v>
+        <v>0.0003278305590619809</v>
       </c>
       <c r="T5">
-        <v>0.0006429514592093872</v>
+        <v>0.000327830559061981</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>151.777694</v>
       </c>
       <c r="I6">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="J6">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.114886</v>
+        <v>2.083188</v>
       </c>
       <c r="N6">
-        <v>3.344658</v>
+        <v>6.249564</v>
       </c>
       <c r="O6">
-        <v>0.01026455462504307</v>
+        <v>0.01853451022101116</v>
       </c>
       <c r="P6">
-        <v>0.01026455462504307</v>
+        <v>0.01853451022101116</v>
       </c>
       <c r="Q6">
-        <v>56.40494205096134</v>
+        <v>105.393823602824</v>
       </c>
       <c r="R6">
-        <v>507.644478458652</v>
+        <v>948.544412425416</v>
       </c>
       <c r="S6">
-        <v>0.003421899557469922</v>
+        <v>0.006621312453872371</v>
       </c>
       <c r="T6">
-        <v>0.003421899557469922</v>
+        <v>0.006621312453872372</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>151.777694</v>
       </c>
       <c r="I7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="J7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>241.998978</v>
       </c>
       <c r="O7">
-        <v>0.7426803364904859</v>
+        <v>0.7177032719746937</v>
       </c>
       <c r="P7">
-        <v>0.7426803364904859</v>
+        <v>0.717703271974694</v>
       </c>
       <c r="Q7">
         <v>4081.116314577415</v>
@@ -883,10 +883,10 @@
         <v>36730.04683119673</v>
       </c>
       <c r="S7">
-        <v>0.247587704251488</v>
+        <v>0.2563940215438686</v>
       </c>
       <c r="T7">
-        <v>0.247587704251488</v>
+        <v>0.2563940215438687</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>151.777694</v>
       </c>
       <c r="I8">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="J8">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.14389166666666</v>
+        <v>29.09185666666666</v>
       </c>
       <c r="N8">
-        <v>78.431675</v>
+        <v>87.27556999999999</v>
       </c>
       <c r="O8">
-        <v>0.2407021023886821</v>
+        <v>0.258835647448298</v>
       </c>
       <c r="P8">
-        <v>0.2407021023886821</v>
+        <v>0.258835647448298</v>
       </c>
       <c r="Q8">
-        <v>1322.686529784161</v>
+        <v>1471.831639681731</v>
       </c>
       <c r="R8">
-        <v>11904.17876805745</v>
+        <v>13246.48475713558</v>
       </c>
       <c r="S8">
-        <v>0.08024297670318602</v>
+        <v>0.09246706147177784</v>
       </c>
       <c r="T8">
-        <v>0.08024297670318603</v>
+        <v>0.09246706147177786</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>151.777694</v>
       </c>
       <c r="I9">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="J9">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6900326666666666</v>
+        <v>0.5537223333333333</v>
       </c>
       <c r="N9">
-        <v>2.070098</v>
+        <v>1.661167</v>
       </c>
       <c r="O9">
-        <v>0.006353006495788928</v>
+        <v>0.004926570355997066</v>
       </c>
       <c r="P9">
-        <v>0.006353006495788928</v>
+        <v>0.004926570355997067</v>
       </c>
       <c r="Q9">
-        <v>34.91052231044578</v>
+        <v>28.01423295654422</v>
       </c>
       <c r="R9">
-        <v>314.194700794012</v>
+        <v>252.128096608898</v>
       </c>
       <c r="S9">
-        <v>0.002117904859067615</v>
+        <v>0.00175997969539344</v>
       </c>
       <c r="T9">
-        <v>0.002117904859067615</v>
+        <v>0.00175997969539344</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="H10">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="I10">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="J10">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.114886</v>
+        <v>2.083188</v>
       </c>
       <c r="N10">
-        <v>3.344658</v>
+        <v>6.249564</v>
       </c>
       <c r="O10">
-        <v>0.01026455462504307</v>
+        <v>0.01853451022101116</v>
       </c>
       <c r="P10">
-        <v>0.01026455462504307</v>
+        <v>0.01853451022101116</v>
       </c>
       <c r="Q10">
-        <v>28.35402305389066</v>
+        <v>55.91435469804801</v>
       </c>
       <c r="R10">
-        <v>255.186207485016</v>
+        <v>503.2291922824321</v>
       </c>
       <c r="S10">
-        <v>0.00172014393442581</v>
+        <v>0.003512790412724927</v>
       </c>
       <c r="T10">
-        <v>0.00172014393442581</v>
+        <v>0.003512790412724928</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="H11">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="I11">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="J11">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>241.998978</v>
       </c>
       <c r="O11">
-        <v>0.7426803364904859</v>
+        <v>0.7177032719746937</v>
       </c>
       <c r="P11">
-        <v>0.7426803364904859</v>
+        <v>0.717703271974694</v>
       </c>
       <c r="Q11">
-        <v>2051.523534313517</v>
+        <v>2165.145711357963</v>
       </c>
       <c r="R11">
-        <v>18463.71180882166</v>
+        <v>19486.31140222167</v>
       </c>
       <c r="S11">
-        <v>0.1244590849479812</v>
+        <v>0.1360241594145817</v>
       </c>
       <c r="T11">
-        <v>0.1244590849479812</v>
+        <v>0.1360241594145817</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="H12">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="I12">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="J12">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.14389166666666</v>
+        <v>29.09185666666666</v>
       </c>
       <c r="N12">
-        <v>78.431675</v>
+        <v>87.27556999999999</v>
       </c>
       <c r="O12">
-        <v>0.2407021023886821</v>
+        <v>0.258835647448298</v>
       </c>
       <c r="P12">
-        <v>0.2407021023886821</v>
+        <v>0.258835647448298</v>
       </c>
       <c r="Q12">
-        <v>664.8971348057888</v>
+        <v>780.8476203226843</v>
       </c>
       <c r="R12">
-        <v>5984.074213252099</v>
+        <v>7027.628582904159</v>
       </c>
       <c r="S12">
-        <v>0.04033708977662482</v>
+        <v>0.04905634786060327</v>
       </c>
       <c r="T12">
-        <v>0.04033708977662483</v>
+        <v>0.04905634786060329</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="H13">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="I13">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="J13">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6900326666666666</v>
+        <v>0.5537223333333333</v>
       </c>
       <c r="N13">
-        <v>2.070098</v>
+        <v>1.661167</v>
       </c>
       <c r="O13">
-        <v>0.006353006495788928</v>
+        <v>0.004926570355997066</v>
       </c>
       <c r="P13">
-        <v>0.006353006495788928</v>
+        <v>0.004926570355997067</v>
       </c>
       <c r="Q13">
-        <v>17.54906074576622</v>
+        <v>14.86232973223289</v>
       </c>
       <c r="R13">
-        <v>157.941546711896</v>
+        <v>133.760967590096</v>
       </c>
       <c r="S13">
-        <v>0.001064642937593918</v>
+        <v>0.0009337181780257037</v>
       </c>
       <c r="T13">
-        <v>0.001064642937593918</v>
+        <v>0.000933718178025704</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="H14">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="I14">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="J14">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.114886</v>
+        <v>2.083188</v>
       </c>
       <c r="N14">
-        <v>3.344658</v>
+        <v>6.249564</v>
       </c>
       <c r="O14">
-        <v>0.01026455462504307</v>
+        <v>0.01853451022101116</v>
       </c>
       <c r="P14">
-        <v>0.01026455462504307</v>
+        <v>0.01853451022101116</v>
       </c>
       <c r="Q14">
-        <v>67.31364668747334</v>
+        <v>114.080664094332</v>
       </c>
       <c r="R14">
-        <v>605.82282018726</v>
+        <v>1026.725976848988</v>
       </c>
       <c r="S14">
-        <v>0.004083694255078592</v>
+        <v>0.007167058714563908</v>
       </c>
       <c r="T14">
-        <v>0.004083694255078592</v>
+        <v>0.007167058714563909</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="H15">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="I15">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="J15">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>241.998978</v>
       </c>
       <c r="O15">
-        <v>0.7426803364904859</v>
+        <v>0.7177032719746937</v>
       </c>
       <c r="P15">
-        <v>0.7426803364904859</v>
+        <v>0.717703271974694</v>
       </c>
       <c r="Q15">
-        <v>4870.403402626407</v>
+        <v>4417.492823561714</v>
       </c>
       <c r="R15">
-        <v>43833.63062363766</v>
+        <v>39757.43541205542</v>
       </c>
       <c r="S15">
-        <v>0.2954711172841859</v>
+        <v>0.2775267017331864</v>
       </c>
       <c r="T15">
-        <v>0.2954711172841859</v>
+        <v>0.2775267017331865</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="H16">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="I16">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="J16">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.14389166666666</v>
+        <v>29.09185666666666</v>
       </c>
       <c r="N16">
-        <v>78.431675</v>
+        <v>87.27556999999999</v>
       </c>
       <c r="O16">
-        <v>0.2407021023886821</v>
+        <v>0.258835647448298</v>
       </c>
       <c r="P16">
-        <v>0.2407021023886821</v>
+        <v>0.258835647448298</v>
       </c>
       <c r="Q16">
-        <v>1578.493843034694</v>
+        <v>1593.143935290743</v>
       </c>
       <c r="R16">
-        <v>14206.44458731225</v>
+        <v>14338.29541761669</v>
       </c>
       <c r="S16">
-        <v>0.09576195252659352</v>
+        <v>0.1000884436957574</v>
       </c>
       <c r="T16">
-        <v>0.09576195252659353</v>
+        <v>0.1000884436957574</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="H17">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="I17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="J17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.6900326666666666</v>
+        <v>0.5537223333333333</v>
       </c>
       <c r="N17">
-        <v>2.070098</v>
+        <v>1.661167</v>
       </c>
       <c r="O17">
-        <v>0.006353006495788928</v>
+        <v>0.004926570355997066</v>
       </c>
       <c r="P17">
-        <v>0.006353006495788928</v>
+        <v>0.004926570355997067</v>
       </c>
       <c r="Q17">
-        <v>41.66221042045111</v>
+        <v>30.32324087433766</v>
       </c>
       <c r="R17">
-        <v>374.95989378406</v>
+        <v>272.9091678690389</v>
       </c>
       <c r="S17">
-        <v>0.002527507239918007</v>
+        <v>0.001905041923515942</v>
       </c>
       <c r="T17">
-        <v>0.002527507239918007</v>
+        <v>0.001905041923515942</v>
       </c>
     </row>
   </sheetData>
